--- a/Bonn/raw/Geschaefftsbereiche_translated.xlsx
+++ b/Bonn/raw/Geschaefftsbereiche_translated.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28703" windowHeight="14928"/>
+    <workbookView windowWidth="22943" windowHeight="9887"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295">
   <si>
-    <t>Geschäftsbereich</t>
-  </si>
-  <si>
-    <t>GeschäftsbereichsBez</t>
+    <t>Geschaeftsbereich</t>
+  </si>
+  <si>
+    <t>GeschaeftsbereichsBez</t>
   </si>
   <si>
     <t>Description</t>
@@ -908,9 +908,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -941,9 +941,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -955,8 +962,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,14 +1011,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -992,23 +1040,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,73 +1083,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1105,7 +1105,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,19 +1201,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,73 +1249,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,7 +1261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,49 +1273,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,17 +1314,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1354,6 +1350,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1377,21 +1388,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1401,161 +1397,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1961,7 +1961,7 @@
   <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
@@ -1971,7 +1971,7 @@
     <col min="3" max="3" width="20.9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="26.4" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
